--- a/presup_py_v3.xlsx
+++ b/presup_py_v3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="236">
   <si>
     <t>Sección</t>
   </si>
@@ -610,7 +610,7 @@
     <t>COMISIÓN NACIONAL DE LA COMPETENCIA</t>
   </si>
   <si>
-    <t>AGENCIA NACIONAL DE TRÁNSITO Y</t>
+    <t>AGENCIA NACIONAL DE TRÁNSITO Y SEGURIDAD VIAL</t>
   </si>
   <si>
     <t>CONSEJO NACIONAL DE EDUCACIÓN SUPERIOR</t>
@@ -721,73 +721,7 @@
     <t>UNIVERSIDAD NACIONAL DE MISIONES</t>
   </si>
   <si>
-    <t>.JUSTICIA ELECTORAL</t>
-  </si>
-  <si>
-    <t>SINDICA TURA GENERAL DE QUIEBRAS</t>
-  </si>
-  <si>
-    <t>DEFENSORÍA DEL PL'EBLO</t>
-  </si>
-  <si>
-    <t>GOBIERNO DEPARTAMENTAL DE CONCEPCIÓN PODER LEGISLATIVO LEY Nº 7609 *** QUE APRUEBA EL PRESUPUESTO GENERAL DE LA NACIÓN PARA EL EJERCICIO FISCAL 2026 EL CONGRESO DE LA NACIÓN PARA GUA YA SANCIONA CON FUERZA DE LEY:</t>
-  </si>
-  <si>
-    <t>GOl!lERNO DEPARTAMENTAL DE SAN PEDRO</t>
-  </si>
-  <si>
-    <t>GOBIERJ,10 DEPARTAMENTAL DE CORDILLERA</t>
-  </si>
-  <si>
-    <t>GOBIERNO DEPARTAMENTAL DE PARAGUARi</t>
-  </si>
-  <si>
-    <t>GOBIERNO DEPARTAMENTAL DE AL TO PARANÁ</t>
-  </si>
-  <si>
-    <t>GOBIERNO DEPARTAMENTAL DE AMAMRAY</t>
-  </si>
-  <si>
-    <t>GOBIERNO DEPARTAMENTAL DE PRESIDENTE HA YES</t>
-  </si>
-  <si>
-    <t>INSTITUTO NACIONAL DE TECNOLOGiA. NORMALIZACIÓN Y METROLOGÍA</t>
-  </si>
-  <si>
-    <t>INSTITUTO PARAGUAYO DEL INDiGENA</t>
-  </si>
-  <si>
-    <t>INSTITUTO PARAGUAYO DE TECNOLOG!A AGRARIA</t>
-  </si>
-  <si>
-    <t>SECRETARiA DE DEFENSA DEL CONSUMIDOR Y EL USUARIO</t>
-  </si>
-  <si>
-    <t>AGENCIA NACIONAL DE TRÁNSITO Y SEGURIDAD VIAL</t>
-  </si>
-  <si>
-    <t>AGENCIA NACIONAL DE EV AL Y ACRED. DE 9 PODER LEGISLATIVO LEY Nº 7609 *** QUE APRUEBA EL PRESUPUESTO GENERAL DE LA NACIÓN PARA EL EJERCICIO FISCAL 2026 EL CONGRESO DE LA NACIÓN PARAGUAYA SANCIONA CON FUERZA DE LEY LA EDUCACIÓN SUPERIOR</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN NACIONAL DE DEFENSA. SALUD Y BIENESTAR ANIMAL</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN NACIONAL DE INGRESOS TRil:lUTARIOS</t>
-  </si>
-  <si>
     <t>INSTITUTO SUPERIOR NACIONAL DE MÚSICA</t>
-  </si>
-  <si>
-    <t>ADMINISTRACIONNACIONAL DE ELECTRICIDAD</t>
-  </si>
-  <si>
-    <t>UNIVERSJDAD NACIONAL DEL ESTE</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD NACIONAL DE CAAGUAZÚ PODER LEGISLATIVO LEY Nº 7609 *** QUE APRUEBA EL PRESUPUESTO GENERAL DE LA NACIÓN PARA EL EJERCICIO FISCAL 2026 EL CONGRESO DE LA NACIÓN PARAG UAY A SANCIONA CON FUERZA DE LEY:</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD NACIONAL DE MISIONES GUBERNAMENTAL GUBERNAMENTAL</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1798,7 @@
         <v>725682152522</v>
       </c>
       <c r="G25" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="H25">
         <v>904550265005</v>
@@ -2009,7 +1943,7 @@
         <v>15886381434</v>
       </c>
       <c r="G30" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="H30">
         <v>18326153741</v>
@@ -2067,7 +2001,7 @@
         <v>18283599778</v>
       </c>
       <c r="G32" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="H32">
         <v>19261742238</v>
@@ -2154,7 +2088,7 @@
         <v>110743720456</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="H35">
         <v>131443932241</v>
@@ -2183,7 +2117,7 @@
         <v>206233919130</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="H36">
         <v>283932917106</v>
@@ -2212,7 +2146,7 @@
         <v>108880503311</v>
       </c>
       <c r="G37" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="H37">
         <v>161647716498</v>
@@ -2386,7 +2320,7 @@
         <v>100667295428</v>
       </c>
       <c r="G43" t="s">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="H43">
         <v>133547607137</v>
@@ -2415,7 +2349,7 @@
         <v>317809865982</v>
       </c>
       <c r="G44" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="H44">
         <v>457970079891</v>
@@ -2502,7 +2436,7 @@
         <v>90583872943</v>
       </c>
       <c r="G47" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="H47">
         <v>116384704229</v>
@@ -2560,7 +2494,7 @@
         <v>36142986810</v>
       </c>
       <c r="G49" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="H49">
         <v>35459720794</v>
@@ -2647,7 +2581,7 @@
         <v>65867023868</v>
       </c>
       <c r="G52" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="H52">
         <v>66729509308</v>
@@ -2734,7 +2668,7 @@
         <v>73632912558</v>
       </c>
       <c r="G55" t="s">
-        <v>246</v>
+        <v>182</v>
       </c>
       <c r="H55">
         <v>80026433934</v>
@@ -3053,7 +2987,7 @@
         <v>80742282065</v>
       </c>
       <c r="G66" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="H66">
         <v>91794893312</v>
@@ -3140,7 +3074,7 @@
         <v>6595759464</v>
       </c>
       <c r="G69" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="H69">
         <v>8200435409</v>
@@ -3198,7 +3132,7 @@
         <v>12844781224</v>
       </c>
       <c r="G71" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="H71">
         <v>21485935306</v>
@@ -3256,7 +3190,7 @@
         <v>17203607664</v>
       </c>
       <c r="G73" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H73">
         <v>21417463220</v>
@@ -3401,7 +3335,7 @@
         <v>6250897377</v>
       </c>
       <c r="G78" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="H78">
         <v>6234028534</v>
@@ -3546,7 +3480,7 @@
         <v>914097825150</v>
       </c>
       <c r="G83" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="H83">
         <v>1067412717424</v>
@@ -3569,7 +3503,7 @@
         <v>104</v>
       </c>
       <c r="G84" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H84">
         <v>9270027135</v>
@@ -3740,7 +3674,7 @@
         <v>14822560215883</v>
       </c>
       <c r="G90" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="H90">
         <v>15910005454698</v>
@@ -4030,7 +3964,7 @@
         <v>140982753163</v>
       </c>
       <c r="G100" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="H100">
         <v>157701930128</v>
@@ -4175,7 +4109,7 @@
         <v>76214845473</v>
       </c>
       <c r="G105" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="H105">
         <v>78800124266</v>
@@ -4262,7 +4196,7 @@
         <v>16324938774</v>
       </c>
       <c r="G108" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="H108">
         <v>23598958975</v>
